--- a/api/exportForm/exportData.xlsx
+++ b/api/exportForm/exportData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\RM_program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\RM_program\backend\api\exportForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBB62BC9-75E5-4BEB-A96D-DE31573706FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E60F7E2-6BD9-4F3B-A117-5EE63E134282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{937EA805-A38C-4164-B3EA-5F4593F9C620}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{937EA805-A38C-4164-B3EA-5F4593F9C620}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>Incoming date</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>8. Keeping</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -506,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027F5539-E229-40BA-8ADA-C5ABC59802A5}">
-  <dimension ref="A1:BG2"/>
+  <dimension ref="A1:BI2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,9 +579,10 @@
     <col min="57" max="57" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="10" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -677,8 +684,14 @@
       <c r="BE1" s="2"/>
       <c r="BF1" s="2"/>
       <c r="BG1" s="2"/>
+      <c r="BH1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -830,9 +843,25 @@
       <c r="BG2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
+    <mergeCell ref="BH1:BH2"/>
+    <mergeCell ref="BI1:BI2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="AM1:AT1"/>
     <mergeCell ref="AU1:AZ1"/>
     <mergeCell ref="BA1:BG1"/>
@@ -842,18 +871,6 @@
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="AC1:AG1"/>
     <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
